--- a/Parametrization.xlsx
+++ b/Parametrization.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="162">
-  <si>
-    <t xml:space="preserve">log2foldchange(All tumor/Control), distribution of genes per stage (Samples of stage/Control)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="225">
+  <si>
+    <t xml:space="preserve">Table 1 : log2foldchange(All tumor/Control), distribution of genes per stage (Samples of stage/Control)</t>
   </si>
   <si>
     <t xml:space="preserve">Thresholds</t>
@@ -289,12 +289,18 @@
     <t xml:space="preserve">39/21/0.3912</t>
   </si>
   <si>
-    <t xml:space="preserve">log2foldchange(paired tumor/paired control), distribution of genes per stage (Samples of stage/Control)</t>
+    <t xml:space="preserve">41/22/0.3776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 2 : log2foldchange(paired tumor/paired control), distribution of genes per stage (Samples of stage/Control)</t>
   </si>
   <si>
     <t xml:space="preserve">2035/15</t>
   </si>
   <si>
+    <t xml:space="preserve">2078/34</t>
+  </si>
+  <si>
     <t xml:space="preserve">2038/22</t>
   </si>
   <si>
@@ -451,9 +457,6 @@
     <t xml:space="preserve">191/303/2.7317</t>
   </si>
   <si>
-    <t xml:space="preserve">2078/34</t>
-  </si>
-  <si>
     <t xml:space="preserve">153/81/0.3228</t>
   </si>
   <si>
@@ -490,22 +493,208 @@
     <t xml:space="preserve">64/35/0.4489</t>
   </si>
   <si>
-    <t xml:space="preserve"> 440/13</t>
-  </si>
-  <si>
     <t xml:space="preserve">35/19/0.422</t>
   </si>
   <si>
-    <t xml:space="preserve">log2foldchange(All tumor/Control), distribution of genes per stage (Samples of stage i/Samples of stages ii and iii)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">770/1639/3.174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41/22/0.3776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238/414/2.838</t>
+    <t xml:space="preserve">Table 3 : distribution of genes per stage (Samples of stage i/Samples of stages ii and iii)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2342/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2441/96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2521/209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">589/992/2.5253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">643/1076/2.5472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">693/1061/2.4077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1653/5229/3.7968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1739/5617/3.8286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1823/6116/3.8752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1466/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1532/55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1629/156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413/670/2.5226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">449/718/2.4896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">496/732/2.3942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1018/2856/3.6247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1065/3087/3.686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1143/3459/3.7247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">983/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1016/32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1101/114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286/495/2.6567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">298/496/2.5894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">332/531/2.5588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">659/1586/3.3846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">678/1655/3.4038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">742/1911/3.4652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1305/31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1369/62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1361/83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331/496/2.5314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349/551/2.6009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360/539/2.4809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">757/1593/3.1609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">824/1793/3.2133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">802/1686/3.1818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">735/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">774/38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">786/48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215/319/2.5225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224/358/2.6338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230/344/2.4108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380/724/3.0167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">415/849/3.1119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">409/783/3.0144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">491/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">522/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">531/38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158/270/2.7834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165/258/2.5372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231/377/2.7622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">258/452/2.8435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">259/439/2.8576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192/106/0.4814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210/115/0.4504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145/81/0.5152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164/92/0.5404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98/56/0.5745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113/65/0.6174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96/51/0.3373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102/54/0.3228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47/25/0.3425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 4 : log2foldchange(All tumor/Control), distribution of genes per stage (Samples of stage/Control)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">≤1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 5 : log2foldchange(paired tumor/paired control), distribution of genes per stage (Samples of stage/Control)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 5 : distribution of genes per stage (Samples of stage i/Samples of stages ii and iii)</t>
   </si>
 </sst>
 </file>
@@ -670,11 +859,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -755,19 +944,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J54" activeCellId="0" sqref="J54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.02"/>
@@ -886,66 +1075,66 @@
       <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="7" t="n">
         <v>1526</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -974,22 +1163,22 @@
       <c r="H6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1018,22 +1207,22 @@
       <c r="H7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1062,13 +1251,13 @@
       <c r="H8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L8" s="7" t="s">
@@ -1106,22 +1295,22 @@
       <c r="H9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1150,22 +1339,22 @@
       <c r="H10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1194,22 +1383,22 @@
       <c r="H11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1238,22 +1427,22 @@
       <c r="H12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1282,22 +1471,22 @@
       <c r="H13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1321,27 +1510,27 @@
         <v>56</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1368,30 +1557,30 @@
         <v>66</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="K15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1494,31 +1683,31 @@
         <v>2185</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="L21" s="8" t="s">
         <v>97</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,7 +1717,7 @@
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1538,31 +1727,31 @@
         <v>1388</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,31 +1771,31 @@
         <v>925</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="7" t="s">
         <v>113</v>
       </c>
+      <c r="K23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="M23" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,31 +1815,31 @@
         <v>1204</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,31 +1859,31 @@
         <v>681</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,31 +1903,31 @@
         <v>457</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,31 +1947,31 @@
         <v>2185</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="N27" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L27" s="8" t="s">
         <v>97</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,31 +1991,31 @@
         <v>1388</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>104</v>
+        <v>150</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,31 +2035,31 @@
         <v>925</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>113</v>
+        <v>153</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,31 +2079,31 @@
         <v>1204</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>122</v>
+      <c r="L30" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,31 +2123,31 @@
         <v>681</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,13 +2167,13 @@
         <v>457</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>157</v>
@@ -1995,17 +2184,18 @@
       <c r="K32" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>140</v>
+      <c r="L32" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="18.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>158</v>
       </c>
@@ -2107,34 +2297,34 @@
         <v>16</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2446</v>
+        <v>6751</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>25</v>
+        <v>164</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,34 +2341,34 @@
         <v>16</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1526</v>
+        <v>4413</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>30</v>
+        <v>170</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N39" s="7" t="s">
-        <v>35</v>
+        <v>172</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2195,34 +2385,34 @@
         <v>16</v>
       </c>
       <c r="E40" s="6" t="n">
-        <v>1021</v>
+        <v>2748</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2239,34 +2429,34 @@
         <v>16</v>
       </c>
       <c r="E41" s="6" t="n">
-        <v>1368</v>
+        <v>6751</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>53</v>
+        <v>191</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>55</v>
+        <v>193</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2283,34 +2473,34 @@
         <v>16</v>
       </c>
       <c r="E42" s="6" t="n">
-        <v>769</v>
+        <v>4413</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2327,34 +2517,34 @@
         <v>16</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>511</v>
+        <v>2748</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I43" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>71</v>
+        <v>207</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>73</v>
+        <v>210</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2371,34 +2561,34 @@
         <v>74</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>2446</v>
+        <v>6751</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I44" s="8" t="s">
         <v>75</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="7" t="s">
-        <v>25</v>
+        <v>212</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2415,34 +2605,34 @@
         <v>74</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1526</v>
+        <v>4413</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I45" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>35</v>
+      <c r="J45" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,34 +2649,34 @@
         <v>74</v>
       </c>
       <c r="E46" s="6" t="n">
-        <v>1021</v>
+        <v>2748</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>45</v>
+      <c r="J46" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2503,34 +2693,34 @@
         <v>74</v>
       </c>
       <c r="E47" s="6" t="n">
-        <v>1368</v>
+        <v>6751</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>53</v>
+        <v>219</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>159</v>
+        <v>193</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,34 +2737,34 @@
         <v>74</v>
       </c>
       <c r="E48" s="6" t="n">
-        <v>769</v>
+        <v>4413</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>86</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>62</v>
+        <v>153</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>63</v>
+        <v>202</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,38 +2781,1166 @@
         <v>74</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>511</v>
+        <v>2748</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I49" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I49" s="8" t="s">
         <v>88</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="30">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:H2"/>
@@ -2638,6 +3956,21 @@
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
     <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A68:N68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="L69:N69"/>
+    <mergeCell ref="A85:N85"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="I86:K86"/>
+    <mergeCell ref="L86:N86"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Parametrization.xlsx
+++ b/Parametrization.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="444">
   <si>
     <t xml:space="preserve">Table 1 : log2foldchange(All tumor/Control), distribution of genes per stage (Samples of stage/Control)</t>
   </si>
@@ -496,7 +496,7 @@
     <t xml:space="preserve">35/19/0.422</t>
   </si>
   <si>
-    <t xml:space="preserve">Table 3 : distribution of genes per stage (Samples of stage i/Samples of stages ii and iii)</t>
+    <t xml:space="preserve">Table 3 : distribution of genes per stage (Samples of stage i/controle)</t>
   </si>
   <si>
     <t xml:space="preserve">2342/40</t>
@@ -691,10 +691,667 @@
     <t xml:space="preserve">≤1.0</t>
   </si>
   <si>
+    <t xml:space="preserve">2339/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2368/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2358/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">591/989/2.5012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">617/1003/2.5017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1644/5113/3.7779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1659/5233/3.8024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1642/5155/3.797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1456/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1475/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1475/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">435/689/2.5356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1008/2751/3.5803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1007/2803/3.6185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1006/2785/3.604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">975/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">982/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">989/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">297/505/2.6652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">641/1512/3.3636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">649/1508/3.3127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1305/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1326/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1308/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">328/490/2.5071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">329/487/2.4801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">749/1573/3.1574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">779/1663/3.1799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">760/1577/3.1417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">728/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">740/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">737/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213/317/2.517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">369/706/3.0064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384/779/3.1043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">372/695/2.9815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">486/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">493/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">489/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148/233/2.6416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239/420/2.8642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224/366/2.7636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174/93/0.3621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183/100/0.433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94/50/0.3425</t>
+  </si>
+  <si>
     <t xml:space="preserve">Table 5 : log2foldchange(paired tumor/paired control), distribution of genes per stage (Samples of stage/Control)</t>
   </si>
   <si>
-    <t xml:space="preserve">Table 5 : distribution of genes per stage (Samples of stage i/Samples of stages ii and iii)</t>
+    <t xml:space="preserve">492/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">525/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">537/39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">259/458/2.8486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260/441/2.8643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1286/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1315/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1303/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362/514/2.3482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">863/2345/3.5736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">867/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">883/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">878/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250/373/2.4745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">565/1292/3.3017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1122/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1156/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1125/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">298/380/2.3507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">299/378/2.3009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">624/1204/3.0363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">676/1361/3.0817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">631/1237/3.0688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">630/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">653/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">631/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191/237/2.2472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">313/561/2.8998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">422/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">441/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">423/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132/181/2.4232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192/305/2.7328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2046/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2085/28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2060/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157/83/0.3167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1407/4177/3.6921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1431/4217/3.7016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1415/4212/3.6963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 6 : distribution of genes per stage (Samples of stage i/controle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2361/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2470/88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2593/217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">593/994/2.5146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">703/1077/2.4205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1664/5271/3.8001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1760/5728/3.8495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1863/6312/3.8915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1470/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1539/53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1651/159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">501/741/2.4069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1020/2862/3.6264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1068/3099/3.6842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1154/3499/3.7259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">985/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1019/32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1112/117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">334/537/2.5665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">679/1661/3.413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">747/1922/3.4633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1322/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1394/59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1416/88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333/497/2.5227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">366/549/2.4875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">768/1615/3.1591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">836/1821/3.2172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">827/1779/3.2078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">738/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">781/39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">799/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232/350/2.4117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">382/729/3.0064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">418/858/3.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">414/800/3.0447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167/264/2.5434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212/116/0.4472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104/55/0.3182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 7 : distribution of genes per stage (Samples of stage i/controle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">≥2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2031/32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2120/79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2220/196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">539/890/2.4534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">585/955/2.4632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">633/957/2.3788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1448/4453/3.7601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1522/4833/3.8159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1618/5356/3.8649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">≥3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1798/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1887/70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1991/182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">488/778/2.4383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">530/837/2.4466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">581/850/2.3667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1276/3819/3.7205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1345/4143/3.7816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1440/4646/3.8299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">≥4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1618/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1694/62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1795/169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447/716/2.4866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">486/767/2.4677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">536/782/2.3699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1140/3291/3.6688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1198/3564/3.7126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1280/4002/3.7865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1080/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1139/48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1145/69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294/425/2.4341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306/483/2.5468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">321/475/2.385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">618/1252/3.0983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">686/1450/3.1686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">671/1376/3.1363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">926/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">981/45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">989/59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260/371/2.4695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270/418/2.5602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">281/402/2.3833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">516/1042/3.118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">570/1215/3.1935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">559/1147/3.1416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">822/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">866/41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">881/57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237/345/2.5053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246/387/2.5881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252/374/2.4114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">443/856/3.0358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">486/1006/3.1375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">477/940/3.1033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">≥0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252/268/1.3874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">275/283/1.3998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287/278/1.3074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226/238/1.4478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247/253/1.4787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261/248/1.3761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204/191/1.3396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225/207/1.4054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">242/206/1.2978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192/165/1.2656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213/181/1.3303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229/181/1.2338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179/158/1.3422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200/174/1.3851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214/173/1.2893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127/126/1.5609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142/131/1.5307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156/139/1.4891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151/123/1.292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165/138/1.3333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163/137/1.3262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134/107/1.3171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145/128/1.4611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145/128/1.443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118/87/1.2175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129/106/1.3711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128/97/1.2272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110/80/1.2307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121/97/1.397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120/90/1.2077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104/77/1.2785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114/93/1.4442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114/87/1.2514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68/55/1.4545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78/71/1.632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78/65/1.4387</t>
   </si>
 </sst>
 </file>
@@ -704,12 +1361,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -732,21 +1388,18 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -754,7 +1407,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -830,7 +1489,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -864,6 +1523,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -930,7 +1605,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -944,22 +1619,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M119" activeCellId="0" sqref="M119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="15.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="17.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2855,7 +3529,7 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>6</v>
       </c>
@@ -2912,16 +3586,36 @@
       <c r="D54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
+      <c r="E54" s="6" t="n">
+        <v>2446</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
@@ -2936,16 +3630,36 @@
       <c r="D55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
+      <c r="E55" s="7" t="n">
+        <v>1526</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
@@ -2960,16 +3674,36 @@
       <c r="D56" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
+      <c r="E56" s="6" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
@@ -2984,16 +3718,36 @@
       <c r="D57" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
+      <c r="E57" s="6" t="n">
+        <v>1368</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
@@ -3008,16 +3762,36 @@
       <c r="D58" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
+      <c r="E58" s="6" t="n">
+        <v>769</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
@@ -3032,16 +3806,36 @@
       <c r="D59" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
+      <c r="E59" s="6" t="n">
+        <v>511</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
@@ -3056,16 +3850,36 @@
       <c r="D60" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
+      <c r="E60" s="6" t="n">
+        <v>2446</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
@@ -3080,16 +3894,36 @@
       <c r="D61" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
+      <c r="E61" s="6" t="n">
+        <v>1526</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
@@ -3104,16 +3938,36 @@
       <c r="D62" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
+      <c r="E62" s="6" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
@@ -3128,16 +3982,36 @@
       <c r="D63" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
+      <c r="E63" s="6" t="n">
+        <v>1368</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
@@ -3152,16 +4026,36 @@
       <c r="D64" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
+      <c r="E64" s="6" t="n">
+        <v>769</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
@@ -3176,20 +4070,40 @@
       <c r="D65" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
+      <c r="E65" s="6" t="n">
+        <v>511</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3231,7 +4145,7 @@
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
         <v>6</v>
       </c>
@@ -3288,16 +4202,36 @@
       <c r="D71" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
+      <c r="E71" s="6" t="n">
+        <v>2748</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
@@ -3312,16 +4246,36 @@
       <c r="D72" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
+      <c r="E72" s="7" t="n">
+        <v>1388</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
@@ -3336,16 +4290,36 @@
       <c r="D73" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
+      <c r="E73" s="6" t="n">
+        <v>925</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
@@ -3360,16 +4334,36 @@
       <c r="D74" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
+      <c r="E74" s="6" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
@@ -3384,16 +4378,36 @@
       <c r="D75" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
+      <c r="E75" s="6" t="n">
+        <v>681</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N75" s="7" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
@@ -3408,16 +4422,36 @@
       <c r="D76" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
+      <c r="E76" s="6" t="n">
+        <v>457</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
@@ -3432,16 +4466,36 @@
       <c r="D77" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
+      <c r="E77" s="6" t="n">
+        <v>2185</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
@@ -3456,16 +4510,36 @@
       <c r="D78" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
+      <c r="E78" s="6" t="n">
+        <v>1388</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N78" s="8" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
@@ -3480,16 +4554,36 @@
       <c r="D79" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
+      <c r="E79" s="6" t="n">
+        <v>925</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M79" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N79" s="7" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
@@ -3504,16 +4598,36 @@
       <c r="D80" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
+      <c r="E80" s="6" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
@@ -3528,16 +4642,36 @@
       <c r="D81" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
+      <c r="E81" s="6" t="n">
+        <v>681</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N81" s="7" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
@@ -3552,20 +4686,40 @@
       <c r="D82" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
+      <c r="E82" s="6" t="n">
+        <v>457</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N82" s="8" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3607,7 +4761,7 @@
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
         <v>6</v>
       </c>
@@ -3664,16 +4818,36 @@
       <c r="D88" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
+      <c r="E88" s="6" t="n">
+        <v>6751</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="N88" s="8" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
@@ -3688,16 +4862,36 @@
       <c r="D89" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
+      <c r="E89" s="6" t="n">
+        <v>4413</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
@@ -3712,16 +4906,36 @@
       <c r="D90" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
+      <c r="E90" s="6" t="n">
+        <v>2748</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
@@ -3736,16 +4950,36 @@
       <c r="D91" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
+      <c r="E91" s="6" t="n">
+        <v>6751</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
@@ -3760,16 +4994,36 @@
       <c r="D92" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
+      <c r="E92" s="6" t="n">
+        <v>4413</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="L92" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="N92" s="8" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
@@ -3784,16 +5038,36 @@
       <c r="D93" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
+      <c r="E93" s="6" t="n">
+        <v>2748</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
@@ -3808,16 +5082,36 @@
       <c r="D94" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
+      <c r="E94" s="6" t="n">
+        <v>6751</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="N94" s="8" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
@@ -3832,16 +5126,36 @@
       <c r="D95" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
+      <c r="E95" s="6" t="n">
+        <v>4413</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
@@ -3856,16 +5170,36 @@
       <c r="D96" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
+      <c r="E96" s="6" t="n">
+        <v>2748</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N96" s="8" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
@@ -3880,16 +5214,36 @@
       <c r="D97" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
+      <c r="E97" s="6" t="n">
+        <v>6751</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
@@ -3904,16 +5258,36 @@
       <c r="D98" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
+      <c r="E98" s="6" t="n">
+        <v>4413</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="N98" s="8" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
@@ -3928,19 +5302,1229 @@
       <c r="D99" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
+      <c r="E99" s="6" t="n">
+        <v>2748</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+    </row>
+    <row r="104" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="6" t="n">
+        <v>6751</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="6" t="n">
+        <v>6060</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="N106" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="6" t="n">
+        <v>5456</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="6" t="n">
+        <v>4882</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="L108" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="N108" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="6" t="n">
+        <v>4413</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="N109" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="6" t="n">
+        <v>2748</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="N110" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="6" t="n">
+        <v>6751</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N111" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" s="6" t="n">
+        <v>6060</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="N112" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" s="6" t="n">
+        <v>5456</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" s="6" t="n">
+        <v>4882</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="L114" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="N114" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" s="6" t="n">
+        <v>4413</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="6" t="n">
+        <v>2748</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="N116" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E117" s="6" t="n">
+        <v>6751</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N117" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E118" s="6" t="n">
+        <v>6060</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="N118" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E119" s="9" t="n">
+        <v>5456</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="L119" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="M119" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="N119" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E120" s="6" t="n">
+        <v>4882</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L120" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="M120" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="N120" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E121" s="6" t="n">
+        <v>4413</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="N121" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E122" s="6" t="n">
+        <v>2748</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E123" s="6" t="n">
+        <v>6751</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="K123" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N123" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O123" s="6"/>
+      <c r="P123" s="6"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E124" s="6" t="n">
+        <v>6060</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="L124" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="N124" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E125" s="11" t="n">
+        <v>5456</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="K125" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="L125" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="M125" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="N125" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="O125" s="6"/>
+      <c r="P125" s="6"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E126" s="6" t="n">
+        <v>4882</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="L126" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="M126" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="N126" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="O126" s="6"/>
+      <c r="P126" s="6"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E127" s="6" t="n">
+        <v>4413</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="M127" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E128" s="6" t="n">
+        <v>2748</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="L128" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="N128" s="8" t="s">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="35">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:H2"/>
@@ -3971,6 +6555,11 @@
     <mergeCell ref="F86:H86"/>
     <mergeCell ref="I86:K86"/>
     <mergeCell ref="L86:N86"/>
+    <mergeCell ref="A102:N102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="I103:K103"/>
+    <mergeCell ref="L103:N103"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
